--- a/OnBoard/output/trust/catch/Catch_Trust_38.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_38.xlsx
@@ -1761,7 +1761,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34">
         <v>10.88380952380952</v>
@@ -2048,7 +2048,7 @@
         <v>1.899</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I41">
         <v>10.88380952380952</v>
@@ -2212,7 +2212,7 @@
         <v>0.681</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
         <v>10.88380952380952</v>
